--- a/Dataset/YACM_Dataset_Generator.xlsx
+++ b/Dataset/YACM_Dataset_Generator.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UA\BD\Project\BD-YACM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UA\BD\Project\BD-YACM\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D09AF-2A20-48F6-9BF5-303B9A3DB6AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A596D5B-DAFA-4DE1-AC54-0C98CB2B4F0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6A8F2234-E9EB-45E3-93F4-BB153DFE2C7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Users and Related" sheetId="3" r:id="rId1"/>
@@ -2270,16 +2269,7 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2289,13 +2279,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -2307,7 +2306,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2316,13 +2315,22 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2331,40 +2339,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <font>
@@ -2397,10 +2372,88 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2427,94 +2480,10 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2651,6 +2620,36 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
@@ -2671,7 +2670,7 @@
     <tableColumn id="1" xr3:uid="{A6559F3E-9243-427F-9E08-FA9D0040BA7B}" name="First Name"/>
     <tableColumn id="2" xr3:uid="{E0A55CE9-5878-48E2-BA83-68A2F7FEF742}" name="Last Name"/>
     <tableColumn id="6" xr3:uid="{EC21F208-5B7E-46BB-854B-FFCE944F128A}" name="id"/>
-    <tableColumn id="5" xr3:uid="{0BED8B80-6BF5-47A3-A37A-D02104A02552}" name="name" dataDxfId="43">
+    <tableColumn id="5" xr3:uid="{0BED8B80-6BF5-47A3-A37A-D02104A02552}" name="name" dataDxfId="40">
       <calculatedColumnFormula>_xlfn.CONCAT(Table3[[#This Row],[First Name]], " ", Table3[[#This Row],[Last Name]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A43C3501-DCDC-4154-8F3F-9A61BA82708F}" name="email"/>
@@ -2683,7 +2682,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E02F4EB6-87A0-4D91-9CC8-A816CBB98718}" name="Table10" displayName="Table10" ref="J3:M19" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E02F4EB6-87A0-4D91-9CC8-A816CBB98718}" name="Table10" displayName="Table10" ref="J3:M19" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="J3:M19" xr:uid="{F27700E4-6A05-405A-9B26-039B9FDAA0AF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7D327689-7776-4ECB-9B9A-7277CF1007F0}" name="participantID">
@@ -2692,10 +2691,10 @@
     <tableColumn id="2" xr3:uid="{D37D43E7-6906-4D3B-8705-843551A5EB3B}" name="teamName">
       <calculatedColumnFormula>Table9[[#This Row],[teamName]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3773CC2A-258F-4268-91FE-F5D2A38B5656}" name="startDate" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{3773CC2A-258F-4268-91FE-F5D2A38B5656}" name="startDate" dataDxfId="19">
       <calculatedColumnFormula>Table1[[#This Row],[beginningDate]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2E6B6658-F0B3-453F-B044-023819E5E0B8}" name="endDate" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{2E6B6658-F0B3-453F-B044-023819E5E0B8}" name="endDate" dataDxfId="18">
       <calculatedColumnFormula>Table1[[#This Row],[endDate]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2704,13 +2703,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D46542F4-5E1B-4BEF-92A1-DE16092D35A2}" name="Table914" displayName="Table914" ref="B3:D17" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{D46542F4-5E1B-4BEF-92A1-DE16092D35A2}" name="Table914" displayName="Table914" ref="B3:D17" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B3:D17" xr:uid="{F29FB464-63D8-4EFE-83A3-2BCD51827F10}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FA8A25AC-6E22-44ED-A21F-2E4D863A0BBD}" name="sponsorID">
       <calculatedColumnFormula>RANDBETWEEN(201, 210)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E3E2F1C7-697F-4104-8C67-1A0EE8B06979}" name="eventNumber" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{E3E2F1C7-697F-4104-8C67-1A0EE8B06979}" name="eventNumber" dataDxfId="16">
       <calculatedColumnFormula>Table9141619[[#This Row],[eventNumber]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{6F0FD5D3-2EE4-4F2D-9127-A15456A24ABC}" name="monetaryValue">
@@ -2722,7 +2721,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{ADB552A8-1FF7-47CA-A7E2-10B9F851AC67}" name="Table91416" displayName="Table91416" ref="F3:H17" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{ADB552A8-1FF7-47CA-A7E2-10B9F851AC67}" name="Table91416" displayName="Table91416" ref="F3:H17" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="F3:H17" xr:uid="{1F8220A3-96D3-4B8D-AED0-FEAC5A54F197}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BC6F6486-8A98-4D61-BCFC-4A49C02198FE}" name="sponsorID">
@@ -2731,7 +2730,7 @@
     <tableColumn id="2" xr3:uid="{2E10E1CB-C029-4931-AC15-1B86A42575C7}" name="teamName">
       <calculatedColumnFormula>Table9[[#This Row],[teamName]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{1DF61AD7-EE55-4EF2-828F-F6FC3BED3F0E}" name="monetaryValue" dataDxfId="20">
+    <tableColumn id="3" xr3:uid="{1DF61AD7-EE55-4EF2-828F-F6FC3BED3F0E}" name="monetaryValue" dataDxfId="14">
       <calculatedColumnFormula>RANDBETWEEN(1000, 100000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2740,20 +2739,20 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8DB8F399-84CA-42FA-BBD3-102AB040E723}" name="Table9141619" displayName="Table9141619" ref="J3:N17" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{8DB8F399-84CA-42FA-BBD3-102AB040E723}" name="Table9141619" displayName="Table9141619" ref="J3:N17" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="J3:N17" xr:uid="{DFDEA6B7-75B8-44F6-B8B9-12D4D6814331}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{59E47DDB-48F6-4D0D-8113-1A62962FBA03}" name="id"/>
-    <tableColumn id="2" xr3:uid="{2638CFD6-09BB-42BD-B225-DB7CF9C11E57}" name="sponsorID" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{2638CFD6-09BB-42BD-B225-DB7CF9C11E57}" name="sponsorID" dataDxfId="12">
       <calculatedColumnFormula>Table914[[#This Row],[sponsorID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C6233448-0CBE-483D-AFFF-FA6BA1217D59}" name="eventNumber" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{C6233448-0CBE-483D-AFFF-FA6BA1217D59}" name="eventNumber" dataDxfId="11">
       <calculatedColumnFormula>Table9[[#This Row],[eventNumber]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A9B4A01E-9969-4DF2-9CE0-2A13892F53B1}" name="receiverID" dataDxfId="16">
+    <tableColumn id="5" xr3:uid="{A9B4A01E-9969-4DF2-9CE0-2A13892F53B1}" name="receiverID" dataDxfId="10">
       <calculatedColumnFormula>Table9[[#This Row],[participantID]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{3F138096-01EA-448E-813F-379F1336CDCD}" name="value" dataDxfId="18">
+    <tableColumn id="6" xr3:uid="{3F138096-01EA-448E-813F-379F1336CDCD}" name="value" dataDxfId="9">
       <calculatedColumnFormula>RANDBETWEEN(100, 10000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2762,10 +2761,10 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD9DD56A-E3C4-4D0A-A358-E94A929ABFE9}" name="Table91417" displayName="Table91417" ref="B3:F19" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{DD9DD56A-E3C4-4D0A-A358-E94A929ABFE9}" name="Table91417" displayName="Table91417" ref="B3:F19" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B3:F19" xr:uid="{625DD010-DBEA-499C-98B7-CC4022AFC3D4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E6B96C34-9485-40A0-B420-21B7EA94709A}" name="date" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{E6B96C34-9485-40A0-B420-21B7EA94709A}" name="date" dataDxfId="7">
       <calculatedColumnFormula>Table1[[#This Row],[beginningDate]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{0EF4BB3B-D49F-4921-B896-4F54D02BC71E}" name="startLocation">
@@ -2774,10 +2773,10 @@
     <tableColumn id="3" xr3:uid="{EB722B3F-EC42-42E9-AF2C-A57CBE5335D3}" name="endLocation">
       <calculatedColumnFormula>INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6F7F9D6A-9083-48DB-91AE-2530C0C7C312}" name="eventNumber" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{6F7F9D6A-9083-48DB-91AE-2530C0C7C312}" name="eventNumber" dataDxfId="6">
       <calculatedColumnFormula>Table9[[#This Row],[eventNumber]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{100F7E2E-261F-48D5-81ED-DCA4862D1CC6}" name="distance" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{100F7E2E-261F-48D5-81ED-DCA4862D1CC6}" name="distance" dataDxfId="5">
       <calculatedColumnFormula>RANDBETWEEN(1, 7000)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2786,7 +2785,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{555DFBF1-AC63-4707-8FD6-30CB7D953246}" name="Table9141618" displayName="Table9141618" ref="H3:M19" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{555DFBF1-AC63-4707-8FD6-30CB7D953246}" name="Table9141618" displayName="Table9141618" ref="H3:M19" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="H3:M19" xr:uid="{A3A11C9A-B3C1-4EB1-AE97-1D2EB9AA7ECF}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{FED8629F-65E5-4064-9E90-AED8D1C185E0}" name="participantID">
@@ -2795,16 +2794,16 @@
     <tableColumn id="2" xr3:uid="{18D43BCF-1DAF-47E7-AD78-EF8802EEBE15}" name="eventNumber">
       <calculatedColumnFormula>Table9[[#This Row],[eventNumber]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2024C595-7B1B-427A-81A6-6D6164B5FA09}" name="stageDate" dataDxfId="1">
+    <tableColumn id="3" xr3:uid="{2024C595-7B1B-427A-81A6-6D6164B5FA09}" name="stageDate" dataDxfId="3">
       <calculatedColumnFormula>Table91417[[#This Row],[date]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{476C059F-2D2C-4DFD-9DDC-DE29F1BD9343}" name="stageStartLocation" dataDxfId="2">
       <calculatedColumnFormula>Table91417[[#This Row],[startLocation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{5D9EBB0E-3F87-4A1D-AAFA-E9BEDCF0D46A}" name="stateEndLocation" dataDxfId="8">
+    <tableColumn id="6" xr3:uid="{5D9EBB0E-3F87-4A1D-AAFA-E9BEDCF0D46A}" name="stateEndLocation" dataDxfId="1">
       <calculatedColumnFormula>Table91417[[#This Row],[endLocation]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C20A5FA0-AAED-4D94-82A3-A5890E923452}" name="result" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{C20A5FA0-AAED-4D94-82A3-A5890E923452}" name="result" dataDxfId="0">
       <calculatedColumnFormula>randbetween</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2813,7 +2812,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4DD635D5-9205-43B9-81C8-C2A1FD975256}" name="Table5" displayName="Table5" ref="L2:L212" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{4DD635D5-9205-43B9-81C8-C2A1FD975256}" name="Table5" displayName="Table5" ref="L2:L212" totalsRowShown="0" headerRowDxfId="39">
   <autoFilter ref="L2:L212" xr:uid="{DF57914A-1E47-4790-88C2-E76C982E1F80}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DE71163E-F1EC-424C-A7B5-2CA8A7B2D19B}" name="id"/>
@@ -2823,10 +2822,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F707C24-A376-4C1B-9562-C64DCCA3C564}" name="Table6" displayName="Table6" ref="P2:P212" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3F707C24-A376-4C1B-9562-C64DCCA3C564}" name="Table6" displayName="Table6" ref="P2:P212" totalsRowShown="0" headerRowDxfId="38">
   <autoFilter ref="P2:P212" xr:uid="{528E56B6-E43F-4147-9024-E5474B82A18E}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E53BFCCF-F7F2-4BA2-B482-81F0C5472A40}" name="id" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{E53BFCCF-F7F2-4BA2-B482-81F0C5472A40}" name="id" dataDxfId="37">
       <calculatedColumnFormula>IF(Table3[[#This Row],[type]]="PARTICIPANT", Table3[[#This Row],[id]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2835,10 +2834,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85E0C57C-88C8-4367-965A-0150D0D73078}" name="Table7" displayName="Table7" ref="T2:T212" totalsRowShown="0" headerRowDxfId="39">
-  <autoFilter ref="T2:T212" xr:uid="{BDF97834-96A4-416F-8E1A-F01BC365159A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{85E0C57C-88C8-4367-965A-0150D0D73078}" name="Table7" displayName="Table7" ref="T2:T212" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="T2:T212" xr:uid="{BDF97834-96A4-416F-8E1A-F01BC365159A}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="201"/>
+        <filter val="202"/>
+        <filter val="203"/>
+        <filter val="204"/>
+        <filter val="205"/>
+        <filter val="206"/>
+        <filter val="207"/>
+        <filter val="208"/>
+        <filter val="209"/>
+        <filter val="210"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{4671B0A1-7BBB-4A67-B2BE-8B60B1869258}" name="id" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{4671B0A1-7BBB-4A67-B2BE-8B60B1869258}" name="id" dataDxfId="35">
       <calculatedColumnFormula>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2847,24 +2861,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B8574B-59C4-4CA9-B231-E09F588ED972}" name="Table1" displayName="Table1" ref="B3:H23" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D2B8574B-59C4-4CA9-B231-E09F588ED972}" name="Table1" displayName="Table1" ref="B3:H23" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="B3:H23" xr:uid="{D500268A-1880-4AEC-A5E8-8A5A3B5CEFC9}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{AC08EE0B-BB9E-441B-954C-C8EABB8EAA3B}" name="number"/>
     <tableColumn id="2" xr3:uid="{CA780BCD-10FF-422B-88E2-BE401C7A98C2}" name="name"/>
-    <tableColumn id="3" xr3:uid="{BC3CC86C-B53D-4EED-9333-CC7320039E8E}" name="beginningDate" dataDxfId="36">
+    <tableColumn id="3" xr3:uid="{BC3CC86C-B53D-4EED-9333-CC7320039E8E}" name="beginningDate" dataDxfId="33">
       <calculatedColumnFormula>RANDBETWEEN(DATE(2017, 1, 1), DATE(2019, 12, 31))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{041BFC88-6430-43E0-B15A-DA3A9E73FDAB}" name="endDate">
       <calculatedColumnFormula>Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{90C3F6F4-22D5-4005-A518-A65A8606FA90}" name="visibilty" dataDxfId="34">
+    <tableColumn id="5" xr3:uid="{90C3F6F4-22D5-4005-A518-A65A8606FA90}" name="visibilty" dataDxfId="32">
       <calculatedColumnFormula>RANDBETWEEN(0, 1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE2E775F-728D-438B-948C-367776DA57E4}" name="managerID" dataDxfId="33">
+    <tableColumn id="6" xr3:uid="{AE2E775F-728D-438B-948C-367776DA57E4}" name="managerID" dataDxfId="31">
       <calculatedColumnFormula>RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{35CD65AE-E8CD-478A-A613-549AE088BC99}" name="duration" dataDxfId="35" dataCellStyle="Calculation">
+    <tableColumn id="7" xr3:uid="{35CD65AE-E8CD-478A-A613-549AE088BC99}" name="duration" dataDxfId="30" dataCellStyle="Calculation">
       <calculatedColumnFormula>RANDBETWEEN(1, 20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2873,7 +2887,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{77D30EFA-1236-4032-B0B4-019E07571237}" name="Table2" displayName="Table2" ref="O3:O21" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{77D30EFA-1236-4032-B0B4-019E07571237}" name="Table2" displayName="Table2" ref="O3:O21" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="O3:O21" xr:uid="{88CB9C10-8A0F-468A-8CB1-F78AA3107CC6}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{F308588F-F66D-4B6C-A6F3-50A1D2FA5F61}" name="name"/>
@@ -2883,14 +2897,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B546E7F-2AA1-4787-ADE1-AB74E787A040}" name="Table4" displayName="Table4" ref="J3:M23" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6B546E7F-2AA1-4787-ADE1-AB74E787A040}" name="Table4" displayName="Table4" ref="J3:M23" totalsRowShown="0" headerRowDxfId="28">
   <autoFilter ref="J3:M23" xr:uid="{FDB48EEE-4595-46F6-BB84-3FA5036E4A7A}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B76F9985-B2F1-4F7C-9ABC-6EA2BD3A22E5}" name="id"/>
     <tableColumn id="2" xr3:uid="{5942C5D5-D271-4CC4-8684-4401A1286C2C}" name="participantID">
       <calculatedColumnFormula>RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B74B32B0-7FC9-4602-96EA-FBC118AC7BB6}" name="category" dataDxfId="30">
+    <tableColumn id="3" xr3:uid="{B74B32B0-7FC9-4602-96EA-FBC118AC7BB6}" name="category" dataDxfId="27">
       <calculatedColumnFormula>INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{683A7F8F-161D-4474-8D69-13EE5C341ACA}" name="description"/>
@@ -2900,13 +2914,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE8AF5ED-5E3E-4C68-B33C-20247171EF7B}" name="Table8" displayName="Table8" ref="B3:C11" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE8AF5ED-5E3E-4C68-B33C-20247171EF7B}" name="Table8" displayName="Table8" ref="B3:C11" totalsRowShown="0" headerRowDxfId="26">
   <autoFilter ref="B3:C11" xr:uid="{EEF889C9-91C9-45D0-992C-7E420B260922}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6F904D4E-543E-4879-89E1-5CB24455B570}" name="participantID" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{6F904D4E-543E-4879-89E1-5CB24455B570}" name="participantID" dataDxfId="25">
       <calculatedColumnFormula>RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F0A5919D-F9AD-4A05-9B84-47D4AA941089}" name="eventNumber" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{F0A5919D-F9AD-4A05-9B84-47D4AA941089}" name="eventNumber" dataDxfId="24">
       <calculatedColumnFormula>RANDBETWEEN(1, 20)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2915,7 +2929,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DA4180C0-E432-492C-ADC9-C5347A1F50BD}" name="Table9" displayName="Table9" ref="E3:H19" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DA4180C0-E432-492C-ADC9-C5347A1F50BD}" name="Table9" displayName="Table9" ref="E3:H19" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="E3:H19" xr:uid="{58B3BB30-AA59-462E-9260-E20921884DBF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CEA15162-F049-4C60-93C6-C2FF93454DD5}" name="participantID">
@@ -2924,10 +2938,10 @@
     <tableColumn id="2" xr3:uid="{995B83C7-5B64-4FDD-9395-B34D1ADCD607}" name="eventNumber">
       <calculatedColumnFormula>RANDBETWEEN(1,20)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{265DE18D-48FB-49EB-A105-3F19F3F9BF92}" name="teamName" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{265DE18D-48FB-49EB-A105-3F19F3F9BF92}" name="teamName" dataDxfId="22">
       <calculatedColumnFormula>'Events, Teams and Equipment'!O5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8858187B-67BA-4492-8BCA-BE1C111F5091}" name="dorsal" dataDxfId="22">
+    <tableColumn id="4" xr3:uid="{8858187B-67BA-4492-8BCA-BE1C111F5091}" name="dorsal" dataDxfId="21">
       <calculatedColumnFormula>RANDBETWEEN(1,10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3224,10 +3238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E07FEEA4-8D30-48F1-BD70-BFA7C6741713}">
   <dimension ref="C1:AB256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X27" sqref="X27"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3241,37 +3254,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>603</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="L1" s="2" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="L1" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="P1" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="X1" s="4" t="s">
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="X1" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
     </row>
     <row r="2" spans="3:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -3304,19 +3317,19 @@
       <c r="T2" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-    </row>
-    <row r="3" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E3">
@@ -3347,17 +3360,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-    </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+    </row>
+    <row r="4" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4">
@@ -3388,17 +3401,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-    </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+    </row>
+    <row r="5" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E5">
@@ -3429,17 +3442,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-    </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+    </row>
+    <row r="6" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E6">
@@ -3470,19 +3483,19 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X6" s="12" t="s">
+      <c r="X6" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-    </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+    </row>
+    <row r="7" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E7">
@@ -3513,17 +3526,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+    </row>
+    <row r="8" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E8">
@@ -3554,17 +3567,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-    </row>
-    <row r="9" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+    </row>
+    <row r="9" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E9">
@@ -3595,17 +3608,17 @@
         <f>IF(Table3[[#This Row],[type]]="SPONSOR", Table3[[#This Row],[id]], -1)</f>
         <v>-1</v>
       </c>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+    </row>
+    <row r="10" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E10">
@@ -3637,11 +3650,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E11">
@@ -3673,11 +3686,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E12">
@@ -3709,11 +3722,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E13">
@@ -3745,11 +3758,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E14">
@@ -3781,11 +3794,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E15">
@@ -3817,11 +3830,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+    <row r="16" spans="3:28" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>92</v>
       </c>
       <c r="E16">
@@ -3853,11 +3866,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+    <row r="17" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E17">
@@ -3889,11 +3902,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+    <row r="18" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E18">
@@ -3925,11 +3938,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="9" t="s">
+    <row r="19" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E19">
@@ -3961,11 +3974,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="9" t="s">
+    <row r="20" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E20">
@@ -3997,11 +4010,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E21">
@@ -4033,11 +4046,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="9" t="s">
+    <row r="22" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E22">
@@ -4069,11 +4082,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="9" t="s">
+    <row r="23" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E23">
@@ -4105,11 +4118,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="9" t="s">
+    <row r="24" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E24">
@@ -4141,11 +4154,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="9" t="s">
+    <row r="25" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E25">
@@ -4177,11 +4190,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E26">
@@ -4213,11 +4226,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E27">
@@ -4249,11 +4262,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="9" t="s">
+    <row r="28" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="6" t="s">
         <v>127</v>
       </c>
       <c r="E28">
@@ -4285,11 +4298,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+    <row r="29" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E29">
@@ -4321,11 +4334,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="9" t="s">
+    <row r="30" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E30">
@@ -4357,11 +4370,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+    <row r="31" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E31">
@@ -4393,11 +4406,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E32">
@@ -4429,11 +4442,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E33">
@@ -4465,11 +4478,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E34">
@@ -4501,11 +4514,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E35">
@@ -4537,11 +4550,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="9" t="s">
+    <row r="36" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E36">
@@ -4573,11 +4586,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="9" t="s">
+    <row r="37" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="6" t="s">
         <v>110</v>
       </c>
       <c r="E37">
@@ -4609,11 +4622,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="9" t="s">
+    <row r="38" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E38">
@@ -4645,11 +4658,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
+    <row r="39" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E39">
@@ -4681,11 +4694,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
+    <row r="40" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E40">
@@ -4717,11 +4730,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="6" t="s">
         <v>185</v>
       </c>
       <c r="E41">
@@ -4753,11 +4766,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
+    <row r="42" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E42">
@@ -4789,11 +4802,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="9" t="s">
+    <row r="43" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E43">
@@ -4825,11 +4838,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="9" t="s">
+    <row r="44" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E44">
@@ -4861,11 +4874,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
+    <row r="45" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E45">
@@ -4897,11 +4910,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="9" t="s">
+    <row r="46" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E46">
@@ -4933,11 +4946,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="9" t="s">
+    <row r="47" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E47">
@@ -4969,11 +4982,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E48">
@@ -5005,11 +5018,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="9" t="s">
+    <row r="49" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E49">
@@ -5041,11 +5054,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="9" t="s">
+    <row r="50" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="6" t="s">
         <v>22</v>
       </c>
       <c r="E50">
@@ -5077,11 +5090,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="9" t="s">
+    <row r="51" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E51">
@@ -5113,11 +5126,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C52" s="9" t="s">
+    <row r="52" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E52">
@@ -5149,11 +5162,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C53" s="9" t="s">
+    <row r="53" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E53">
@@ -5185,11 +5198,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C54" s="9" t="s">
+    <row r="54" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E54">
@@ -5221,11 +5234,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C55" s="9" t="s">
+    <row r="55" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E55">
@@ -5257,11 +5270,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C56" s="9" t="s">
+    <row r="56" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E56">
@@ -5293,11 +5306,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C57" s="9" t="s">
+    <row r="57" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E57">
@@ -5329,11 +5342,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C58" s="9" t="s">
+    <row r="58" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E58">
@@ -5365,11 +5378,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C59" s="9" t="s">
+    <row r="59" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="6" t="s">
         <v>171</v>
       </c>
       <c r="E59">
@@ -5401,11 +5414,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C60" s="9" t="s">
+    <row r="60" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E60">
@@ -5437,11 +5450,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C61" s="9" t="s">
+    <row r="61" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E61">
@@ -5473,11 +5486,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C62" s="9" t="s">
+    <row r="62" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E62">
@@ -5509,11 +5522,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C63" s="9" t="s">
+    <row r="63" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E63">
@@ -5545,11 +5558,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C64" s="9" t="s">
+    <row r="64" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E64">
@@ -5581,11 +5594,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C65" s="9" t="s">
+    <row r="65" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E65">
@@ -5617,11 +5630,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C66" s="9" t="s">
+    <row r="66" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E66">
@@ -5653,11 +5666,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C67" s="9" t="s">
+    <row r="67" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E67">
@@ -5689,11 +5702,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C68" s="9" t="s">
+    <row r="68" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E68">
@@ -5725,11 +5738,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="69" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C69" s="9" t="s">
+    <row r="69" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E69">
@@ -5761,11 +5774,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C70" s="9" t="s">
+    <row r="70" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E70">
@@ -5797,11 +5810,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C71" s="9" t="s">
+    <row r="71" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="6" t="s">
         <v>190</v>
       </c>
       <c r="E71">
@@ -5833,11 +5846,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C72" s="9" t="s">
+    <row r="72" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E72">
@@ -5869,11 +5882,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C73" s="9" t="s">
+    <row r="73" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="6" t="s">
         <v>88</v>
       </c>
       <c r="E73">
@@ -5905,11 +5918,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C74" s="9" t="s">
+    <row r="74" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E74">
@@ -5941,11 +5954,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C75" s="9" t="s">
+    <row r="75" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E75">
@@ -5977,11 +5990,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C76" s="9" t="s">
+    <row r="76" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="6" t="s">
         <v>105</v>
       </c>
       <c r="E76">
@@ -6013,11 +6026,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C77" s="9" t="s">
+    <row r="77" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E77">
@@ -6049,11 +6062,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="78" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C78" s="9" t="s">
+    <row r="78" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E78">
@@ -6085,11 +6098,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C79" s="9" t="s">
+    <row r="79" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E79">
@@ -6121,11 +6134,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C80" s="9" t="s">
+    <row r="80" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="6" t="s">
         <v>141</v>
       </c>
       <c r="E80">
@@ -6157,11 +6170,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C81" s="9" t="s">
+    <row r="81" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E81">
@@ -6193,11 +6206,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C82" s="9" t="s">
+    <row r="82" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E82">
@@ -6229,11 +6242,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C83" s="9" t="s">
+    <row r="83" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E83">
@@ -6265,11 +6278,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C84" s="9" t="s">
+    <row r="84" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E84">
@@ -6301,11 +6314,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C85" s="9" t="s">
+    <row r="85" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="6" t="s">
         <v>341</v>
       </c>
       <c r="E85">
@@ -6337,11 +6350,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C86" s="9" t="s">
+    <row r="86" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="6" t="s">
         <v>120</v>
       </c>
       <c r="E86">
@@ -6373,11 +6386,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C87" s="9" t="s">
+    <row r="87" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E87">
@@ -6409,11 +6422,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C88" s="9" t="s">
+    <row r="88" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D88" s="9" t="s">
+      <c r="D88" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E88">
@@ -6445,11 +6458,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C89" s="9" t="s">
+    <row r="89" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E89">
@@ -6481,11 +6494,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C90" s="9" t="s">
+    <row r="90" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E90">
@@ -6517,11 +6530,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C91" s="9" t="s">
+    <row r="91" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E91">
@@ -6553,11 +6566,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C92" s="9" t="s">
+    <row r="92" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="6" t="s">
         <v>356</v>
       </c>
       <c r="E92">
@@ -6589,11 +6602,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C93" s="9" t="s">
+    <row r="93" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E93">
@@ -6625,11 +6638,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C94" s="9" t="s">
+    <row r="94" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E94">
@@ -6661,11 +6674,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C95" s="9" t="s">
+    <row r="95" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E95">
@@ -6697,11 +6710,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C96" s="9" t="s">
+    <row r="96" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E96">
@@ -6733,11 +6746,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C97" s="9" t="s">
+    <row r="97" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E97">
@@ -6769,11 +6782,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C98" s="9" t="s">
+    <row r="98" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E98">
@@ -6805,11 +6818,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C99" s="9" t="s">
+    <row r="99" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D99" s="9" t="s">
+      <c r="D99" s="6" t="s">
         <v>373</v>
       </c>
       <c r="E99">
@@ -6841,11 +6854,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C100" s="9" t="s">
+    <row r="100" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E100">
@@ -6877,11 +6890,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C101" s="9" t="s">
+    <row r="101" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E101">
@@ -6913,11 +6926,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C102" s="9" t="s">
+    <row r="102" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E102">
@@ -6949,11 +6962,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="103" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C103" s="9" t="s">
+    <row r="103" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E103">
@@ -6985,11 +6998,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="104" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C104" s="9" t="s">
+    <row r="104" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E104">
@@ -7021,11 +7034,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="105" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C105" s="9" t="s">
+    <row r="105" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E105">
@@ -7057,11 +7070,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="106" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C106" s="9" t="s">
+    <row r="106" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E106">
@@ -7093,11 +7106,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C107" s="9" t="s">
+    <row r="107" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E107">
@@ -7129,11 +7142,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="108" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C108" s="9" t="s">
+    <row r="108" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E108">
@@ -7165,11 +7178,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E109">
@@ -7201,11 +7214,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="110" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C110" s="9" t="s">
+    <row r="110" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="6" t="s">
         <v>55</v>
       </c>
       <c r="E110">
@@ -7237,11 +7250,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="111" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C111" s="9" t="s">
+    <row r="111" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="6" t="s">
         <v>104</v>
       </c>
       <c r="E111">
@@ -7273,11 +7286,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="112" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C112" s="9" t="s">
+    <row r="112" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E112">
@@ -7309,11 +7322,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E113">
@@ -7345,11 +7358,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="114" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C114" s="9" t="s">
+    <row r="114" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E114">
@@ -7381,11 +7394,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="115" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C115" s="9" t="s">
+    <row r="115" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E115">
@@ -7417,11 +7430,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="116" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C116" s="9" t="s">
+    <row r="116" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C116" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E116">
@@ -7453,11 +7466,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="117" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C117" s="9" t="s">
+    <row r="117" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="6" t="s">
         <v>108</v>
       </c>
       <c r="E117">
@@ -7489,11 +7502,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C118" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="6" t="s">
         <v>125</v>
       </c>
       <c r="E118">
@@ -7525,11 +7538,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C119" s="9" t="s">
+    <row r="119" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C119" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E119">
@@ -7561,11 +7574,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C120" s="9" t="s">
+    <row r="120" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C120" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E120">
@@ -7597,11 +7610,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="121" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C121" s="9" t="s">
+    <row r="121" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E121">
@@ -7633,11 +7646,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C122" s="9" t="s">
+    <row r="122" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E122">
@@ -7669,11 +7682,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="123" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C123" s="9" t="s">
+    <row r="123" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="6" t="s">
         <v>425</v>
       </c>
       <c r="E123">
@@ -7705,11 +7718,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="124" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C124" s="9" t="s">
+    <row r="124" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E124">
@@ -7741,11 +7754,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="125" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C125" s="9" t="s">
+    <row r="125" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E125">
@@ -7777,11 +7790,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C126" s="9" t="s">
+    <row r="126" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E126">
@@ -7813,11 +7826,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="127" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C127" s="9" t="s">
+    <row r="127" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C127" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E127">
@@ -7849,11 +7862,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C128" s="9" t="s">
+    <row r="128" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C128" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="6" t="s">
         <v>237</v>
       </c>
       <c r="E128">
@@ -7885,11 +7898,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C129" s="9" t="s">
+    <row r="129" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E129">
@@ -7921,11 +7934,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="130" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C130" s="9" t="s">
+    <row r="130" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E130">
@@ -7957,11 +7970,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C131" s="9" t="s">
+    <row r="131" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C131" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E131">
@@ -7993,11 +8006,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="132" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C132" s="9" t="s">
+    <row r="132" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C132" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="6" t="s">
         <v>67</v>
       </c>
       <c r="E132">
@@ -8029,11 +8042,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C133" s="9" t="s">
+    <row r="133" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C133" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E133">
@@ -8065,11 +8078,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C134" s="9" t="s">
+    <row r="134" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C134" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E134">
@@ -8101,11 +8114,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C135" s="9" t="s">
+    <row r="135" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E135">
@@ -8137,11 +8150,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C136" s="9" t="s">
+    <row r="136" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="6" t="s">
         <v>451</v>
       </c>
       <c r="E136">
@@ -8173,11 +8186,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C137" s="9" t="s">
+    <row r="137" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E137">
@@ -8209,11 +8222,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="138" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C138" s="9" t="s">
+    <row r="138" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E138">
@@ -8245,11 +8258,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="139" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C139" s="9" t="s">
+    <row r="139" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E139">
@@ -8281,11 +8294,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C140" s="9" t="s">
+    <row r="140" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E140">
@@ -8317,11 +8330,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C141" s="9" t="s">
+    <row r="141" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C141" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E141">
@@ -8353,11 +8366,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="142" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C142" s="9" t="s">
+    <row r="142" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C142" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E142">
@@ -8389,11 +8402,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="143" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C143" s="9" t="s">
+    <row r="143" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C143" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E143">
@@ -8425,11 +8438,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="144" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C144" s="9" t="s">
+    <row r="144" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E144">
@@ -8461,11 +8474,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C145" s="9" t="s">
+    <row r="145" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E145">
@@ -8497,11 +8510,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C146" s="9" t="s">
+    <row r="146" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="6" t="s">
         <v>94</v>
       </c>
       <c r="E146">
@@ -8533,11 +8546,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="147" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C147" s="9" t="s">
+    <row r="147" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="6" t="s">
         <v>111</v>
       </c>
       <c r="E147">
@@ -8569,11 +8582,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="148" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C148" s="9" t="s">
+    <row r="148" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E148">
@@ -8605,11 +8618,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C149" s="9" t="s">
+    <row r="149" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E149">
@@ -8641,11 +8654,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="150" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C150" s="9" t="s">
+    <row r="150" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E150">
@@ -8677,11 +8690,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C151" s="9" t="s">
+    <row r="151" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E151">
@@ -8713,11 +8726,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C152" s="9" t="s">
+    <row r="152" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E152">
@@ -8749,11 +8762,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C153" s="9" t="s">
+    <row r="153" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E153">
@@ -8785,11 +8798,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="154" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C154" s="9" t="s">
+    <row r="154" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="6" t="s">
         <v>489</v>
       </c>
       <c r="E154">
@@ -8821,11 +8834,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="155" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C155" s="9" t="s">
+    <row r="155" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E155">
@@ -8857,11 +8870,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C156" s="9" t="s">
+    <row r="156" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E156">
@@ -8893,11 +8906,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C157" s="9" t="s">
+    <row r="157" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E157">
@@ -8929,11 +8942,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="158" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C158" s="9" t="s">
+    <row r="158" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="6" t="s">
         <v>113</v>
       </c>
       <c r="E158">
@@ -8965,11 +8978,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C159" s="9" t="s">
+    <row r="159" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E159">
@@ -9001,11 +9014,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C160" s="9" t="s">
+    <row r="160" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C160" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E160">
@@ -9037,11 +9050,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C161" s="9" t="s">
+    <row r="161" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C161" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E161">
@@ -9073,11 +9086,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C162" s="9" t="s">
+    <row r="162" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C162" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E162">
@@ -9109,11 +9122,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C163" s="9" t="s">
+    <row r="163" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C163" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E163">
@@ -9145,11 +9158,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C164" s="9" t="s">
+    <row r="164" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C164" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E164">
@@ -9181,11 +9194,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C165" s="9" t="s">
+    <row r="165" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C165" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="6" t="s">
         <v>513</v>
       </c>
       <c r="E165">
@@ -9217,11 +9230,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="166" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C166" s="9" t="s">
+    <row r="166" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C166" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="6" t="s">
         <v>224</v>
       </c>
       <c r="E166">
@@ -9253,11 +9266,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C167" s="9" t="s">
+    <row r="167" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C167" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="6" t="s">
         <v>341</v>
       </c>
       <c r="E167">
@@ -9289,11 +9302,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C168" s="9" t="s">
+    <row r="168" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C168" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E168">
@@ -9325,11 +9338,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C169" s="9" t="s">
+    <row r="169" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C169" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="6" t="s">
         <v>205</v>
       </c>
       <c r="E169">
@@ -9361,11 +9374,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="170" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C170" s="9" t="s">
+    <row r="170" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C170" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E170">
@@ -9397,11 +9410,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="171" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C171" s="9" t="s">
+    <row r="171" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C171" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E171">
@@ -9433,11 +9446,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C172" s="9" t="s">
+    <row r="172" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C172" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="6" t="s">
         <v>489</v>
       </c>
       <c r="E172">
@@ -9469,11 +9482,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="173" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C173" s="9" t="s">
+    <row r="173" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C173" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="6" t="s">
         <v>199</v>
       </c>
       <c r="E173">
@@ -9505,11 +9518,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="174" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C174" s="9" t="s">
+    <row r="174" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C174" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E174">
@@ -9541,11 +9554,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="175" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C175" s="9" t="s">
+    <row r="175" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C175" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="6" t="s">
         <v>282</v>
       </c>
       <c r="E175">
@@ -9577,11 +9590,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C176" s="9" t="s">
+    <row r="176" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C176" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E176">
@@ -9613,11 +9626,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C177" s="9" t="s">
+    <row r="177" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C177" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E177">
@@ -9649,11 +9662,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="178" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C178" s="9" t="s">
+    <row r="178" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C178" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E178">
@@ -9685,11 +9698,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="179" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C179" s="9" t="s">
+    <row r="179" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C179" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="6" t="s">
         <v>45</v>
       </c>
       <c r="E179">
@@ -9721,11 +9734,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="180" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C180" s="9" t="s">
+    <row r="180" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C180" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E180">
@@ -9757,11 +9770,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="181" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C181" s="9" t="s">
+    <row r="181" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C181" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E181">
@@ -9793,11 +9806,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="182" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C182" s="9" t="s">
+    <row r="182" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C182" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E182">
@@ -9829,11 +9842,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C183" s="9" t="s">
+    <row r="183" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C183" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E183">
@@ -9865,11 +9878,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C184" s="9" t="s">
+    <row r="184" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C184" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="6" t="s">
         <v>98</v>
       </c>
       <c r="E184">
@@ -9901,11 +9914,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="185" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C185" s="9" t="s">
+    <row r="185" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C185" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="6" t="s">
         <v>121</v>
       </c>
       <c r="E185">
@@ -9937,11 +9950,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="186" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C186" s="9" t="s">
+    <row r="186" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C186" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="6" t="s">
         <v>85</v>
       </c>
       <c r="E186">
@@ -9973,11 +9986,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="187" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C187" s="9" t="s">
+    <row r="187" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C187" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="6" t="s">
         <v>451</v>
       </c>
       <c r="E187">
@@ -10009,11 +10022,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C188" s="9" t="s">
+    <row r="188" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C188" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E188">
@@ -10045,11 +10058,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C189" s="9" t="s">
+    <row r="189" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="6" t="s">
         <v>77</v>
       </c>
       <c r="E189">
@@ -10081,11 +10094,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C190" s="9" t="s">
+    <row r="190" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C190" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="6" t="s">
         <v>180</v>
       </c>
       <c r="E190">
@@ -10117,11 +10130,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="191" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C191" s="9" t="s">
+    <row r="191" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C191" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="6" t="s">
         <v>109</v>
       </c>
       <c r="E191">
@@ -10153,11 +10166,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="192" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C192" s="9" t="s">
+    <row r="192" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C192" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E192">
@@ -10189,11 +10202,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="193" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C193" s="9" t="s">
+    <row r="193" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C193" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="6" t="s">
         <v>102</v>
       </c>
       <c r="E193">
@@ -10225,11 +10238,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C194" s="9" t="s">
+    <row r="194" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C194" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="6" t="s">
         <v>79</v>
       </c>
       <c r="E194">
@@ -10261,11 +10274,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="195" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C195" s="9" t="s">
+    <row r="195" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C195" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E195">
@@ -10297,11 +10310,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C196" s="9" t="s">
+    <row r="196" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C196" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E196">
@@ -10333,11 +10346,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C197" s="9" t="s">
+    <row r="197" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C197" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="6" t="s">
         <v>133</v>
       </c>
       <c r="E197">
@@ -10369,11 +10382,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="198" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C198" s="9" t="s">
+    <row r="198" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C198" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E198">
@@ -10405,11 +10418,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="199" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C199" s="9" t="s">
+    <row r="199" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C199" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E199">
@@ -10441,11 +10454,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="200" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C200" s="9" t="s">
+    <row r="200" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C200" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D200" s="9" t="s">
+      <c r="D200" s="6" t="s">
         <v>97</v>
       </c>
       <c r="E200">
@@ -10477,11 +10490,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="201" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C201" s="9" t="s">
+    <row r="201" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C201" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D201" s="9" t="s">
+      <c r="D201" s="6" t="s">
         <v>115</v>
       </c>
       <c r="E201">
@@ -10513,11 +10526,11 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="202" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C202" s="9" t="s">
+    <row r="202" spans="3:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C202" s="6" t="s">
         <v>594</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="6" t="s">
         <v>118</v>
       </c>
       <c r="E202">
@@ -10848,90 +10861,90 @@
       </c>
     </row>
     <row r="238" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F238" s="3"/>
-      <c r="P238" s="3"/>
-      <c r="T238" s="3"/>
+      <c r="F238" s="2"/>
+      <c r="P238" s="2"/>
+      <c r="T238" s="2"/>
     </row>
     <row r="239" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F239" s="3"/>
-      <c r="P239" s="3"/>
-      <c r="T239" s="3"/>
+      <c r="F239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="T239" s="2"/>
     </row>
     <row r="240" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F240" s="3"/>
-      <c r="P240" s="3"/>
-      <c r="T240" s="3"/>
+      <c r="F240" s="2"/>
+      <c r="P240" s="2"/>
+      <c r="T240" s="2"/>
     </row>
     <row r="241" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F241" s="3"/>
-      <c r="P241" s="3"/>
-      <c r="T241" s="3"/>
+      <c r="F241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="T241" s="2"/>
     </row>
     <row r="242" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F242" s="3"/>
-      <c r="P242" s="3"/>
-      <c r="T242" s="3"/>
+      <c r="F242" s="2"/>
+      <c r="P242" s="2"/>
+      <c r="T242" s="2"/>
     </row>
     <row r="243" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F243" s="3"/>
-      <c r="P243" s="3"/>
-      <c r="T243" s="3"/>
+      <c r="F243" s="2"/>
+      <c r="P243" s="2"/>
+      <c r="T243" s="2"/>
     </row>
     <row r="244" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F244" s="3"/>
-      <c r="P244" s="3"/>
-      <c r="T244" s="3"/>
+      <c r="F244" s="2"/>
+      <c r="P244" s="2"/>
+      <c r="T244" s="2"/>
     </row>
     <row r="245" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F245" s="3"/>
-      <c r="P245" s="3"/>
-      <c r="T245" s="3"/>
+      <c r="F245" s="2"/>
+      <c r="P245" s="2"/>
+      <c r="T245" s="2"/>
     </row>
     <row r="246" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F246" s="3"/>
-      <c r="P246" s="3"/>
-      <c r="T246" s="3"/>
+      <c r="F246" s="2"/>
+      <c r="P246" s="2"/>
+      <c r="T246" s="2"/>
     </row>
     <row r="247" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F247" s="3"/>
-      <c r="P247" s="3"/>
-      <c r="T247" s="3"/>
+      <c r="F247" s="2"/>
+      <c r="P247" s="2"/>
+      <c r="T247" s="2"/>
     </row>
     <row r="248" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P248" s="3"/>
-      <c r="T248" s="3"/>
+      <c r="P248" s="2"/>
+      <c r="T248" s="2"/>
     </row>
     <row r="249" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P249" s="3"/>
-      <c r="T249" s="3"/>
+      <c r="P249" s="2"/>
+      <c r="T249" s="2"/>
     </row>
     <row r="250" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P250" s="3"/>
-      <c r="T250" s="3"/>
+      <c r="P250" s="2"/>
+      <c r="T250" s="2"/>
     </row>
     <row r="251" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P251" s="3"/>
-      <c r="T251" s="3"/>
+      <c r="P251" s="2"/>
+      <c r="T251" s="2"/>
     </row>
     <row r="252" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P252" s="3"/>
-      <c r="T252" s="3"/>
+      <c r="P252" s="2"/>
+      <c r="T252" s="2"/>
     </row>
     <row r="253" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P253" s="3"/>
-      <c r="T253" s="3"/>
+      <c r="P253" s="2"/>
+      <c r="T253" s="2"/>
     </row>
     <row r="254" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P254" s="3"/>
-      <c r="T254" s="3"/>
+      <c r="P254" s="2"/>
+      <c r="T254" s="2"/>
     </row>
     <row r="255" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P255" s="3"/>
-      <c r="T255" s="3"/>
+      <c r="P255" s="2"/>
+      <c r="T255" s="2"/>
     </row>
     <row r="256" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="P256" s="3"/>
-      <c r="T256" s="3"/>
+      <c r="P256" s="2"/>
+      <c r="T256" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10944,13 +10957,13 @@
     <mergeCell ref="X1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="I248:I1040612 I2:I237">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="SPONSOR">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="SPONSOR">
       <formula>NOT(ISERROR(SEARCH("SPONSOR",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="MANAGER">
+    <cfRule type="containsText" dxfId="42" priority="2" operator="containsText" text="MANAGER">
       <formula>NOT(ISERROR(SEARCH("MANAGER",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="PARTICIPANT">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="PARTICIPANT">
       <formula>NOT(ISERROR(SEARCH("PARTICIPANT",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10972,9 +10985,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10995,22 +11005,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="6" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="O2" s="3" t="s">
         <v>652</v>
       </c>
     </row>
@@ -11048,7 +11058,7 @@
       <c r="M3" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="5" t="s">
         <v>597</v>
       </c>
     </row>
@@ -11059,13 +11069,13 @@
       <c r="C4" t="s">
         <v>633</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <f ca="1">RANDBETWEEN(DATE(2017, 1, 1), DATE(2019, 12, 31))</f>
-        <v>43225</v>
-      </c>
-      <c r="E4" s="7">
+        <v>43244</v>
+      </c>
+      <c r="E4" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43228</v>
+        <v>43257</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F20" ca="1" si="0">RANDBETWEEN(0, 1)</f>
@@ -11073,22 +11083,22 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>159</v>
-      </c>
-      <c r="H4" s="9">
+        <v>169</v>
+      </c>
+      <c r="H4" s="6">
         <f t="shared" ref="H4:H20" ca="1" si="1">RANDBETWEEN(1, 20)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Others</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>680</v>
@@ -11105,13 +11115,13 @@
       <c r="C5" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <f t="shared" ref="D5:D20" ca="1" si="2">RANDBETWEEN(DATE(2017, 1, 1), DATE(2019, 12, 31))</f>
-        <v>43468</v>
-      </c>
-      <c r="E5" s="7">
+        <v>43482</v>
+      </c>
+      <c r="E5" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43470</v>
+        <v>43495</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
@@ -11119,18 +11129,18 @@
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>172</v>
-      </c>
-      <c r="H5" s="9">
+        <v>164</v>
+      </c>
+      <c r="H5" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L5" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
@@ -11151,36 +11161,36 @@
       <c r="C6" t="s">
         <v>635</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43703</v>
-      </c>
-      <c r="E6" s="7">
+        <v>43747</v>
+      </c>
+      <c r="E6" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43710</v>
+        <v>43753</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
         <v>173</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L6" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Others</v>
+        <v>Bike</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>680</v>
@@ -11197,36 +11207,36 @@
       <c r="C7" t="s">
         <v>636</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43819</v>
-      </c>
-      <c r="E7" s="7">
+        <v>43623</v>
+      </c>
+      <c r="E7" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43839</v>
+        <v>43642</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>159</v>
-      </c>
-      <c r="H7" s="9">
+        <v>167</v>
+      </c>
+      <c r="H7" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="L7" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Shorts</v>
+        <v>Bike</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>680</v>
@@ -11243,36 +11253,36 @@
       <c r="C8" t="s">
         <v>637</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42805</v>
-      </c>
-      <c r="E8" s="7">
+        <v>42751</v>
+      </c>
+      <c r="E8" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>42806</v>
+        <v>42771</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>164</v>
-      </c>
-      <c r="H8" s="9">
+        <v>167</v>
+      </c>
+      <c r="H8" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="L8" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Others</v>
+        <v>Shorts</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>680</v>
@@ -11288,36 +11298,36 @@
       <c r="C9" t="s">
         <v>638</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43646</v>
-      </c>
-      <c r="E9" s="7">
+        <v>43371</v>
+      </c>
+      <c r="E9" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43654</v>
+        <v>43384</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
         <v>167</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="L9" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Others</v>
+        <v>Shorts</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>680</v>
@@ -11333,13 +11343,13 @@
       <c r="C10" t="s">
         <v>639</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43605</v>
-      </c>
-      <c r="E10" s="7">
+        <v>43827</v>
+      </c>
+      <c r="E10" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43613</v>
+        <v>43829</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -11347,22 +11357,22 @@
       </c>
       <c r="G10">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>162</v>
-      </c>
-      <c r="H10" s="9">
+        <v>165</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="L10" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Others</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>680</v>
@@ -11378,23 +11388,23 @@
       <c r="C11" t="s">
         <v>640</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43364</v>
-      </c>
-      <c r="E11" s="7">
+        <v>43268</v>
+      </c>
+      <c r="E11" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43366</v>
+        <v>43270</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>173</v>
-      </c>
-      <c r="H11" s="9">
+        <v>160</v>
+      </c>
+      <c r="H11" s="6">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
@@ -11403,11 +11413,11 @@
       </c>
       <c r="K11">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="L11" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Shorts</v>
+        <v>Bike</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>680</v>
@@ -11423,36 +11433,36 @@
       <c r="C12" t="s">
         <v>641</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43108</v>
-      </c>
-      <c r="E12" s="7">
+        <v>43359</v>
+      </c>
+      <c r="E12" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43119</v>
+        <v>43376</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>171</v>
-      </c>
-      <c r="H12" s="9">
+        <v>159</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Others</v>
+        <v>Bike</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>680</v>
@@ -11468,13 +11478,13 @@
       <c r="C13" t="s">
         <v>642</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43200</v>
-      </c>
-      <c r="E13" s="7">
+        <v>43469</v>
+      </c>
+      <c r="E13" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43202</v>
+        <v>43475</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
@@ -11482,18 +11492,18 @@
       </c>
       <c r="G13">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>170</v>
-      </c>
-      <c r="H13" s="9">
+        <v>159</v>
+      </c>
+      <c r="H13" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="L13" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
@@ -11513,32 +11523,32 @@
       <c r="C14" t="s">
         <v>643</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43435</v>
-      </c>
-      <c r="E14" s="7">
+        <v>43242</v>
+      </c>
+      <c r="E14" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43448</v>
+        <v>43249</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>161</v>
-      </c>
-      <c r="H14" s="9">
+        <v>172</v>
+      </c>
+      <c r="H14" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <v>11</v>
       </c>
       <c r="K14">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="L14" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
@@ -11558,13 +11568,13 @@
       <c r="C15" t="s">
         <v>644</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43471</v>
-      </c>
-      <c r="E15" s="7">
+        <v>42977</v>
+      </c>
+      <c r="E15" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43491</v>
+        <v>42985</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
@@ -11572,22 +11582,22 @@
       </c>
       <c r="G15">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>159</v>
-      </c>
-      <c r="H15" s="9">
+        <v>164</v>
+      </c>
+      <c r="H15" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <v>12</v>
       </c>
       <c r="K15">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L15" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Others</v>
+        <v>Bike</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>680</v>
@@ -11603,36 +11613,36 @@
       <c r="C16" t="s">
         <v>645</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43174</v>
-      </c>
-      <c r="E16" s="7">
+        <v>42935</v>
+      </c>
+      <c r="E16" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43194</v>
+        <v>42944</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>162</v>
-      </c>
-      <c r="H16" s="9">
+        <v>172</v>
+      </c>
+      <c r="H16" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J16">
         <v>13</v>
       </c>
       <c r="K16">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="L16" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Shorts</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>680</v>
@@ -11648,13 +11658,13 @@
       <c r="C17" t="s">
         <v>632</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>43059</v>
-      </c>
-      <c r="E17" s="7">
+        <v>42848</v>
+      </c>
+      <c r="E17" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43071</v>
+        <v>42867</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
@@ -11664,20 +11674,20 @@
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
         <v>169</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J17">
         <v>14</v>
       </c>
       <c r="K17">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="L17" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Shorts</v>
+        <v>Bike</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>680</v>
@@ -11693,13 +11703,13 @@
       <c r="C18" t="s">
         <v>646</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42987</v>
-      </c>
-      <c r="E18" s="7">
+        <v>42754</v>
+      </c>
+      <c r="E18" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43005</v>
+        <v>42771</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
@@ -11707,22 +11717,22 @@
       </c>
       <c r="G18">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>166</v>
-      </c>
-      <c r="H18" s="9">
+        <v>160</v>
+      </c>
+      <c r="H18" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18">
         <v>15</v>
       </c>
       <c r="K18">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="L18" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Shorts</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>680</v>
@@ -11738,13 +11748,13 @@
       <c r="C19" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42993</v>
-      </c>
-      <c r="E19" s="7">
+        <v>43417</v>
+      </c>
+      <c r="E19" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43007</v>
+        <v>43432</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
@@ -11752,22 +11762,22 @@
       </c>
       <c r="G19">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>163</v>
-      </c>
-      <c r="H19" s="9">
+        <v>171</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J19">
         <v>16</v>
       </c>
       <c r="K19">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="L19" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Others</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>680</v>
@@ -11783,13 +11793,13 @@
       <c r="C20" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42792</v>
-      </c>
-      <c r="E20" s="7">
+        <v>43017</v>
+      </c>
+      <c r="E20" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>42808</v>
+        <v>43031</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
@@ -11797,22 +11807,22 @@
       </c>
       <c r="G20">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>165</v>
-      </c>
-      <c r="H20" s="9">
+        <v>163</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20">
         <v>17</v>
       </c>
       <c r="K20">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>113</v>
+        <v>11</v>
       </c>
       <c r="L20" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
-        <v>Bike</v>
+        <v>Shorts</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>680</v>
@@ -11828,32 +11838,32 @@
       <c r="C21" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <f t="shared" ref="D21:D23" ca="1" si="3">RANDBETWEEN(DATE(2017, 1, 1), DATE(2019, 12, 31))</f>
-        <v>43689</v>
-      </c>
-      <c r="E21" s="7">
+        <v>43081</v>
+      </c>
+      <c r="E21" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43695</v>
-      </c>
-      <c r="F21" s="3">
+        <v>43084</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" ref="F21:F23" ca="1" si="4">RANDBETWEEN(0, 1)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>162</v>
-      </c>
-      <c r="H21" s="10">
+        <v>172</v>
+      </c>
+      <c r="H21" s="7">
         <f t="shared" ref="H21:H23" ca="1" si="5">RANDBETWEEN(1, 20)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>18</v>
       </c>
       <c r="K21">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="L21" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
@@ -11873,34 +11883,34 @@
       <c r="C22" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>43290</v>
-      </c>
-      <c r="E22" s="7">
+        <v>43314</v>
+      </c>
+      <c r="E22" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>43293</v>
-      </c>
-      <c r="F22" s="3">
+        <v>43322</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>164</v>
-      </c>
-      <c r="H22" s="10">
+        <v>167</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>19</v>
       </c>
       <c r="K22">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>71</v>
-      </c>
-      <c r="L22" s="3" t="str">
+        <v>97</v>
+      </c>
+      <c r="L22" s="2" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
         <v>Others</v>
       </c>
@@ -11915,49 +11925,49 @@
       <c r="C23" t="s">
         <v>651</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42911</v>
-      </c>
-      <c r="E23" s="7">
+        <v>43736</v>
+      </c>
+      <c r="E23" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]+Table1[[#This Row],[duration]]</f>
-        <v>42918</v>
-      </c>
-      <c r="F23" s="3">
+        <v>43741</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$L$161:$L$175),MAX('Users and Related'!$L$161:$L$175))</f>
-        <v>163</v>
-      </c>
-      <c r="H23" s="10">
+        <v>173</v>
+      </c>
+      <c r="H23" s="7">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>20</v>
       </c>
       <c r="K23">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>108</v>
-      </c>
-      <c r="L23" s="3" t="str">
+        <v>144</v>
+      </c>
+      <c r="L23" s="2" t="str">
         <f ca="1">INDEX({"Bike","Shorts","Others"},RANDBETWEEN(1,3))</f>
         <v>Shorts</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="O23" s="8" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D24" s="7"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
@@ -11986,9 +11996,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12005,22 +12012,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -12057,15 +12064,15 @@
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C11" ca="1" si="0">RANDBETWEEN(1, 20)</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -12076,37 +12083,37 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H19" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="K4" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Astana Pro Team </v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43225</v>
-      </c>
-      <c r="M4" s="7">
+        <v>43244</v>
+      </c>
+      <c r="M4" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43228</v>
+        <v>43257</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -12117,37 +12124,37 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="K5" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Bahrain Merida </v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43468</v>
-      </c>
-      <c r="M5" s="7">
+        <v>43482</v>
+      </c>
+      <c r="M5" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43470</v>
+        <v>43495</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -12158,37 +12165,37 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="K6" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">BORA - hansgrohe </v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43703</v>
-      </c>
-      <c r="M6" s="7">
+        <v>43747</v>
+      </c>
+      <c r="M6" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43710</v>
+        <v>43753</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -12199,37 +12206,37 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J7">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="K7" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">CCC Team </v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43819</v>
-      </c>
-      <c r="M7" s="7">
+        <v>43623</v>
+      </c>
+      <c r="M7" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43839</v>
+        <v>43642</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -12240,37 +12247,37 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J8">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="K8" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Deceuninck - Quick Step </v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42805</v>
-      </c>
-      <c r="M8" s="7">
+        <v>42751</v>
+      </c>
+      <c r="M8" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>42806</v>
+        <v>42771</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -12281,37 +12288,37 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="K9" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">EF Education First </v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43646</v>
-      </c>
-      <c r="M9" s="7">
+        <v>43371</v>
+      </c>
+      <c r="M9" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43654</v>
+        <v>43384</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -12322,37 +12329,37 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="K10" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Groupama - FDJ </v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43605</v>
-      </c>
-      <c r="M10" s="7">
+        <v>43827</v>
+      </c>
+      <c r="M10" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43613</v>
+        <v>43829</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$176:$P$202), MAX('Users and Related'!$P$176:$P$202))</f>
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -12363,29 +12370,29 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="K11" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Lotto Soudal </v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43364</v>
-      </c>
-      <c r="M11" s="7">
+        <v>43268</v>
+      </c>
+      <c r="M11" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43366</v>
+        <v>43270</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E12">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -12396,29 +12403,29 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K12" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Mitchelton-Scott </v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43108</v>
-      </c>
-      <c r="M12" s="7">
+        <v>43359</v>
+      </c>
+      <c r="M12" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43119</v>
+        <v>43376</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E13">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -12429,29 +12436,29 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="K13" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Movistar Team </v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43200</v>
-      </c>
-      <c r="M13" s="7">
+        <v>43469</v>
+      </c>
+      <c r="M13" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43202</v>
+        <v>43475</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E14">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -12462,29 +12469,29 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="K14" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Team Dimension Data </v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43435</v>
-      </c>
-      <c r="M14" s="7">
+        <v>43242</v>
+      </c>
+      <c r="M14" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43448</v>
+        <v>43249</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E15">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="F15">
         <v>12</v>
@@ -12495,29 +12502,29 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="K15" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Team INEOS </v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43471</v>
-      </c>
-      <c r="M15" s="7">
+        <v>42977</v>
+      </c>
+      <c r="M15" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43491</v>
+        <v>42985</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="E16">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F16">
         <v>13</v>
@@ -12532,25 +12539,25 @@
       </c>
       <c r="J16">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="K16" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Team Jumbo-Visma </v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43174</v>
-      </c>
-      <c r="M16" s="7">
+        <v>42935</v>
+      </c>
+      <c r="M16" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43194</v>
+        <v>42944</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E17">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>14</v>
@@ -12561,29 +12568,29 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="K17" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Team Katusha - Alpecin </v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43059</v>
-      </c>
-      <c r="M17" s="7">
+        <v>42848</v>
+      </c>
+      <c r="M17" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43071</v>
+        <v>42867</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E18">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F18">
         <v>15</v>
@@ -12594,29 +12601,29 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K18" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Team Sunweb </v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42987</v>
-      </c>
-      <c r="M18" s="7">
+        <v>42754</v>
+      </c>
+      <c r="M18" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43005</v>
+        <v>42771</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E19">
         <f ca="1">RANDBETWEEN(MIN('Users and Related'!$P$3:$P$160), MAX('Users and Related'!$P$3:$P$160))</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F19">
         <v>16</v>
@@ -12627,23 +12634,23 @@
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K19" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
         <v xml:space="preserve">Trek - Segafredo </v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42993</v>
-      </c>
-      <c r="M19" s="7">
+        <v>43417</v>
+      </c>
+      <c r="M19" s="4">
         <f ca="1">Table1[[#This Row],[endDate]]</f>
-        <v>43007</v>
+        <v>43432</v>
       </c>
     </row>
   </sheetData>
@@ -12668,7 +12675,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12687,23 +12693,23 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="F2" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="J2" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -12744,7 +12750,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4">
         <f ca="1">RANDBETWEEN(201, 210)</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -12752,11 +12758,11 @@
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(1000, 100000)</f>
-        <v>63501</v>
+        <v>37728</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4" ca="1" si="0">RANDBETWEEN(201, 210)</f>
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G4" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -12764,14 +12770,14 @@
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H17" ca="1" si="1">RANDBETWEEN(1000, 100000)</f>
-        <v>75168</v>
+        <v>41122</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L4">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -12779,17 +12785,17 @@
       </c>
       <c r="M4">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N17" ca="1" si="2">RANDBETWEEN(100, 10000)</f>
-        <v>8102</v>
+        <v>6772</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" ref="B5:B12" ca="1" si="3">RANDBETWEEN(201, 210)</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -12797,11 +12803,11 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D12" ca="1" si="4">RANDBETWEEN(1000, 100000)</f>
-        <v>91801</v>
+        <v>72561</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F17" ca="1" si="5">RANDBETWEEN(201, 210)</f>
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G5" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -12809,14 +12815,14 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>31022</v>
+        <v>56489</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L5">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -12824,11 +12830,11 @@
       </c>
       <c r="M5">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="2"/>
-        <v>9689</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -12842,11 +12848,11 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="4"/>
-        <v>89459</v>
+        <v>37983</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G6" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -12854,7 +12860,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>17550</v>
+        <v>57811</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -12869,17 +12875,17 @@
       </c>
       <c r="M6">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="2"/>
-        <v>3846</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C7">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -12887,11 +12893,11 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="4"/>
-        <v>39301</v>
+        <v>40246</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G7" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -12899,14 +12905,14 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>68263</v>
+        <v>75462</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L7">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -12914,17 +12920,17 @@
       </c>
       <c r="M7">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="2"/>
-        <v>5046</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C8">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -12932,7 +12938,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="4"/>
-        <v>26653</v>
+        <v>84680</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="5"/>
@@ -12944,14 +12950,14 @@
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>84978</v>
+        <v>9717</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
       <c r="K8">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L8">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -12959,17 +12965,17 @@
       </c>
       <c r="M8">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="2"/>
-        <v>7833</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C9">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -12977,11 +12983,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="4"/>
-        <v>81477</v>
+        <v>17580</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G9" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -12989,14 +12995,14 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>56798</v>
+        <v>61096</v>
       </c>
       <c r="J9">
         <v>6</v>
       </c>
       <c r="K9">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L9">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13004,17 +13010,17 @@
       </c>
       <c r="M9">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="2"/>
-        <v>3358</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C10">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13022,11 +13028,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="4"/>
-        <v>49567</v>
+        <v>96849</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="G10" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13034,14 +13040,14 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>51811</v>
+        <v>57232</v>
       </c>
       <c r="J10">
         <v>7</v>
       </c>
       <c r="K10">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L10">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13049,17 +13055,17 @@
       </c>
       <c r="M10">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="2"/>
-        <v>7581</v>
+        <v>9271</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C11">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13067,11 +13073,11 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="4"/>
-        <v>36082</v>
+        <v>24425</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G11" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13079,14 +13085,14 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>69447</v>
+        <v>21414</v>
       </c>
       <c r="J11">
         <v>8</v>
       </c>
       <c r="K11">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="L11">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13094,11 +13100,11 @@
       </c>
       <c r="M11">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="2"/>
-        <v>2191</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -13112,11 +13118,11 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="4"/>
-        <v>56114</v>
+        <v>3089</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G12" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13124,7 +13130,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>78190</v>
+        <v>40310</v>
       </c>
       <c r="J12">
         <v>9</v>
@@ -13139,17 +13145,17 @@
       </c>
       <c r="M12">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="2"/>
-        <v>7856</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" ref="B13:B17" ca="1" si="6">RANDBETWEEN(201, 210)</f>
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C13">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13157,11 +13163,11 @@
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D17" ca="1" si="7">RANDBETWEEN(1000, 100000)</f>
-        <v>60347</v>
+        <v>66341</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G13" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13169,14 +13175,14 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>55496</v>
+        <v>30910</v>
       </c>
       <c r="J13">
         <v>10</v>
       </c>
       <c r="K13">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L13">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13184,17 +13190,17 @@
       </c>
       <c r="M13">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="2"/>
-        <v>6404</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" ca="1" si="6"/>
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C14">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13202,7 +13208,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="7"/>
-        <v>47940</v>
+        <v>90640</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="5"/>
@@ -13214,14 +13220,14 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>77897</v>
+        <v>45493</v>
       </c>
       <c r="J14">
         <v>11</v>
       </c>
       <c r="K14">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="L14">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13229,17 +13235,17 @@
       </c>
       <c r="M14">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="2"/>
-        <v>3763</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C15">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13247,11 +13253,11 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="7"/>
-        <v>88635</v>
+        <v>89078</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="5"/>
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G15" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13259,14 +13265,14 @@
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>19452</v>
+        <v>57263</v>
       </c>
       <c r="J15">
         <v>12</v>
       </c>
       <c r="K15">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L15">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13274,17 +13280,17 @@
       </c>
       <c r="M15">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>3013</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C16">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13292,11 +13298,11 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="7"/>
-        <v>85893</v>
+        <v>47147</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G16" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13304,14 +13310,14 @@
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>12339</v>
+        <v>62245</v>
       </c>
       <c r="J16">
         <v>13</v>
       </c>
       <c r="K16">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="L16">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13319,17 +13325,17 @@
       </c>
       <c r="M16">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>4551</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C17">
         <f>Table9141619[[#This Row],[eventNumber]]</f>
@@ -13337,11 +13343,11 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="7"/>
-        <v>14067</v>
+        <v>59504</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G17" t="str">
         <f>Table9[[#This Row],[teamName]]</f>
@@ -13349,14 +13355,14 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>53789</v>
+        <v>43677</v>
       </c>
       <c r="J17">
         <v>14</v>
       </c>
       <c r="K17">
         <f ca="1">Table914[[#This Row],[sponsorID]]</f>
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L17">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13364,11 +13370,11 @@
       </c>
       <c r="M17">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>813</v>
+        <v>4290</v>
       </c>
     </row>
   </sheetData>
@@ -13393,7 +13399,6 @@
     <sheetView zoomScale="96" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13409,21 +13414,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -13462,13 +13467,13 @@
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43225</v>
+        <v>43244</v>
       </c>
       <c r="C4" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>New York City</v>
+        <v>Paris</v>
       </c>
       <c r="D4" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13480,23 +13485,23 @@
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F19" ca="1" si="0">RANDBETWEEN(1, 7000)</f>
-        <v>6745</v>
+        <v>4739</v>
       </c>
       <c r="H4">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I4">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>1</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43225</v>
+        <v>43244</v>
       </c>
       <c r="K4" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>New York City</v>
+        <v>Paris</v>
       </c>
       <c r="L4" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
@@ -13504,21 +13509,21 @@
       </c>
       <c r="M4" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>3.5 hours</v>
+        <v>1.5 hours</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43468</v>
+        <v>43482</v>
       </c>
       <c r="C5" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>New York City</v>
+        <v>Aveiro</v>
       </c>
       <c r="D5" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="E5">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13526,27 +13531,27 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>3276</v>
+        <v>2869</v>
       </c>
       <c r="H5">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="I5">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>2</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43468</v>
+        <v>43482</v>
       </c>
       <c r="K5" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>New York City</v>
+        <v>Aveiro</v>
       </c>
       <c r="L5" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
@@ -13554,13 +13559,13 @@
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43703</v>
+        <v>43747</v>
       </c>
       <c r="C6" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="D6" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13572,23 +13577,23 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>333</v>
+        <v>1429</v>
       </c>
       <c r="H6">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>3</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43703</v>
+        <v>43747</v>
       </c>
       <c r="K6" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="L6" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
@@ -13596,17 +13601,17 @@
       </c>
       <c r="M6" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>9.8 hours</v>
+        <v>4.5 hours</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43819</v>
+        <v>43623</v>
       </c>
       <c r="C7" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Paris</v>
+        <v>New York City</v>
       </c>
       <c r="D7" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13618,23 +13623,23 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1289</v>
+        <v>5218</v>
       </c>
       <c r="H7">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I7">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>4</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43819</v>
+        <v>43623</v>
       </c>
       <c r="K7" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Paris</v>
+        <v>New York City</v>
       </c>
       <c r="L7" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
@@ -13642,21 +13647,21 @@
       </c>
       <c r="M7" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>9.8 hours</v>
+        <v>1.5 hours</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42805</v>
+        <v>42751</v>
       </c>
       <c r="C8" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="D8" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>New York City</v>
       </c>
       <c r="E8">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13664,41 +13669,41 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>3772</v>
+        <v>3468</v>
       </c>
       <c r="H8">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="I8">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>42805</v>
+        <v>42751</v>
       </c>
       <c r="K8" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="L8" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>New York City</v>
       </c>
       <c r="M8" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>1.5 hours</v>
+        <v>3.5 hours</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43646</v>
+        <v>43371</v>
       </c>
       <c r="C9" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Paris</v>
+        <v>Aveiro</v>
       </c>
       <c r="D9" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13710,23 +13715,23 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>5222</v>
+        <v>6290</v>
       </c>
       <c r="H9">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>131</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>6</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43646</v>
+        <v>43371</v>
       </c>
       <c r="K9" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Paris</v>
+        <v>Aveiro</v>
       </c>
       <c r="L9" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
@@ -13738,17 +13743,17 @@
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43605</v>
+        <v>43827</v>
       </c>
       <c r="C10" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Paris</v>
+        <v>New York City</v>
       </c>
       <c r="D10" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="E10">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13756,45 +13761,45 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>2562</v>
+        <v>4489</v>
       </c>
       <c r="H10">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I10">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>7</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43605</v>
+        <v>43827</v>
       </c>
       <c r="K10" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Paris</v>
+        <v>New York City</v>
       </c>
       <c r="L10" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>9.8 hours</v>
+        <v>3.5 hours</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43364</v>
+        <v>43268</v>
       </c>
       <c r="C11" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>New York City</v>
+        <v>Lisboa</v>
       </c>
       <c r="D11" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="E11">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13802,45 +13807,45 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>332</v>
+        <v>6061</v>
       </c>
       <c r="H11">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I11">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>8</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43364</v>
+        <v>43268</v>
       </c>
       <c r="K11" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>New York City</v>
+        <v>Lisboa</v>
       </c>
       <c r="L11" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>9.8 hours</v>
+        <v>3.5 hours</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43108</v>
+        <v>43359</v>
       </c>
       <c r="C12" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="D12" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="E12">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13848,37 +13853,37 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1838</v>
+        <v>3817</v>
       </c>
       <c r="H12">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I12">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>9</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43108</v>
+        <v>43359</v>
       </c>
       <c r="K12" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Aveiro</v>
+        <v>Lisboa</v>
       </c>
       <c r="L12" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>1.5 hours</v>
+        <v>9.8 hours</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43200</v>
+        <v>43469</v>
       </c>
       <c r="C13" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13894,19 +13899,19 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>3005</v>
+        <v>1633</v>
       </c>
       <c r="H13">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="I13">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>10</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43200</v>
+        <v>43469</v>
       </c>
       <c r="K13" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -13922,17 +13927,17 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43435</v>
+        <v>43242</v>
       </c>
       <c r="C14" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Paris</v>
+        <v>Aveiro</v>
       </c>
       <c r="D14" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="E14">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -13940,27 +13945,27 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>6712</v>
+        <v>6679</v>
       </c>
       <c r="H14">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="I14">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>11</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43435</v>
+        <v>43242</v>
       </c>
       <c r="K14" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
-        <v>Paris</v>
+        <v>Aveiro</v>
       </c>
       <c r="L14" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Aveiro</v>
+        <v>Paris</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
@@ -13968,9 +13973,9 @@
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43471</v>
+        <v>42977</v>
       </c>
       <c r="C15" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -13986,19 +13991,19 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>3830</v>
+        <v>6566</v>
       </c>
       <c r="H15">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="I15">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>12</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43471</v>
+        <v>42977</v>
       </c>
       <c r="K15" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -14010,13 +14015,13 @@
       </c>
       <c r="M15" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>4.5 hours</v>
+        <v>1.5 hours</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43174</v>
+        <v>42935</v>
       </c>
       <c r="C16" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -14024,7 +14029,7 @@
       </c>
       <c r="D16" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>New York City</v>
       </c>
       <c r="E16">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -14032,19 +14037,19 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>5392</v>
+        <v>383</v>
       </c>
       <c r="H16">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="I16">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>13</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43174</v>
+        <v>42935</v>
       </c>
       <c r="K16" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -14052,7 +14057,7 @@
       </c>
       <c r="L16" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>New York City</v>
       </c>
       <c r="M16" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
@@ -14060,9 +14065,9 @@
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>43059</v>
+        <v>42848</v>
       </c>
       <c r="C17" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -14070,7 +14075,7 @@
       </c>
       <c r="D17" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="E17">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -14078,19 +14083,19 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>1191</v>
+        <v>6784</v>
       </c>
       <c r="H17">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I17">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>14</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>43059</v>
+        <v>42848</v>
       </c>
       <c r="K17" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -14098,7 +14103,7 @@
       </c>
       <c r="L17" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
@@ -14106,9 +14111,9 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42987</v>
+        <v>42754</v>
       </c>
       <c r="C18" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -14124,19 +14129,19 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>2528</v>
+        <v>5560</v>
       </c>
       <c r="H18">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I18">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>15</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>42987</v>
+        <v>42754</v>
       </c>
       <c r="K18" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -14148,13 +14153,13 @@
       </c>
       <c r="M18" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>3.5 hours</v>
+        <v>4.5 hours</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <f ca="1">Table1[[#This Row],[beginningDate]]</f>
-        <v>42993</v>
+        <v>43417</v>
       </c>
       <c r="C19" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
@@ -14162,7 +14167,7 @@
       </c>
       <c r="D19" t="str">
         <f ca="1">INDEX({"Aveiro","Lisboa","New York City","Paris"},RANDBETWEEN(1,4))</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="E19">
         <f>Table9[[#This Row],[eventNumber]]</f>
@@ -14170,19 +14175,19 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>4872</v>
+        <v>476</v>
       </c>
       <c r="H19">
         <f ca="1">Table9[[#This Row],[participantID]]</f>
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I19">
         <f>Table9[[#This Row],[eventNumber]]</f>
         <v>16</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="4">
         <f ca="1">Table91417[[#This Row],[date]]</f>
-        <v>42993</v>
+        <v>43417</v>
       </c>
       <c r="K19" t="str">
         <f ca="1">Table91417[[#This Row],[startLocation]]</f>
@@ -14190,11 +14195,11 @@
       </c>
       <c r="L19" t="str">
         <f ca="1">Table91417[[#This Row],[endLocation]]</f>
-        <v>Lisboa</v>
+        <v>Aveiro</v>
       </c>
       <c r="M19" t="str">
         <f ca="1">INDEX({"1.5 hours","3.5 hours","4.5 hours","9.8 hours"},RANDBETWEEN(1,4))</f>
-        <v>9.8 hours</v>
+        <v>4.5 hours</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
